--- a/DATA_goal/Junction_Flooding_318.xlsx
+++ b/DATA_goal/Junction_Flooding_318.xlsx
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -469,8 +469,8 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44999.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.38</v>
+        <v>13.8</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.88</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.24</v>
+        <v>22.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.66</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.2</v>
+        <v>31.97</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.73</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.52</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.97</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.86</v>
+        <v>158.58</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.02</v>
+        <v>30.18</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.33</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.1</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.89</v>
+        <v>28.93</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44999.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.91</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>7.28</v>
+        <v>72.81</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.48</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.55</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44999.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.95</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.9</v>
+        <v>19.04</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.23</v>
+        <v>32.28</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.26</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.15</v>
       </c>
       <c r="Q4" s="4" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>124.28</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>15.83</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.94</v>
+        <v>29.4</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44999.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.2</v>
+        <v>22.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.35</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.81</v>
+        <v>48.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.91</v>
+        <v>39.12</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.26</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.5</v>
+        <v>64.95</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.76</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.52</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.05</v>
+        <v>20.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.46</v>
+        <v>24.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.62</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25.59</v>
+        <v>255.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.83</v>
+        <v>48.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.6</v>
+        <v>15.96</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.24</v>
+        <v>32.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.21</v>
+        <v>32.07</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.72</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.91</v>
+        <v>59.11</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_318.xlsx
+++ b/DATA_goal/Junction_Flooding_318.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44999.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.8</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.53</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>29.88</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.44</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.66</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>31.97</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.74</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.01</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.73</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.52</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.5</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.97</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.06</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.67</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>158.58</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>30.18</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.33</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.1</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.67</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.06</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>28.93</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.41</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.58</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
@@ -759,82 +759,82 @@
         <v>44999.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.61</v>
+        <v>6.614</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.47</v>
+        <v>4.467</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.433</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.61</v>
+        <v>14.606</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>10.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.08</v>
+        <v>5.084</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>21.91</v>
+        <v>21.912</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.144</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.32</v>
+        <v>3.323</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.68</v>
+        <v>4.679</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.77</v>
+        <v>5.773</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.21</v>
+        <v>6.215</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.69</v>
+        <v>1.695</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.26</v>
+        <v>7.264</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.86</v>
+        <v>4.863</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.368</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.81</v>
+        <v>72.80800000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.86</v>
+        <v>14.858</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.48</v>
+        <v>9.481</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.86</v>
+        <v>4.862</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.311</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.76</v>
+        <v>10.764</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>4.02</v>
@@ -843,19 +843,19 @@
         <v>4.74</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.89</v>
+        <v>5.889</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.55</v>
+        <v>20.547</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.55</v>
+        <v>2.549</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.07</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="4">
@@ -863,22 +863,22 @@
         <v>44999.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.95</v>
+        <v>10.954</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>7.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.121</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.05</v>
+        <v>24.048</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.04</v>
+        <v>19.043</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.536</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>32.28</v>
@@ -887,55 +887,55 @@
         <v>13.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.77</v>
+        <v>5.772</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.42</v>
+        <v>8.416</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.605</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.26</v>
+        <v>10.261</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>12.15</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.53</v>
+        <v>7.533</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.95</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.653</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124.28</v>
+        <v>124.276</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.13</v>
+        <v>24.126</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.93</v>
+        <v>15.927</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.34</v>
+        <v>8.345000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.544</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.83</v>
+        <v>15.834</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>7.05</v>
@@ -944,22 +944,22 @@
         <v>6.37</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.49</v>
+        <v>7.492</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.99</v>
+        <v>9.987</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.4</v>
+        <v>29.404</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.39</v>
+        <v>4.386</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.96</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44999.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.32</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>44.86</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>40.97</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_318.xlsx
+++ b/DATA_goal/Junction_Flooding_318.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,32 +444,32 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,13 +967,13 @@
         <v>44999.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.02</v>
+        <v>22.016</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.35</v>
+        <v>16.346</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.29</v>
+        <v>1.285</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>48.09</v>
@@ -982,88 +982,192 @@
         <v>39.12</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.26</v>
+        <v>17.263</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.95</v>
+        <v>64.95399999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.76</v>
+        <v>26.759</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.86</v>
+        <v>11.855</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.52</v>
+        <v>17.518</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>19.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.48</v>
+        <v>20.476</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.55</v>
+        <v>5.555</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.29</v>
+        <v>17.294</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.58</v>
+        <v>24.581</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.62</v>
+        <v>14.616</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.826</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.884</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.92</v>
+        <v>255.918</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.32</v>
+        <v>48.319</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.96</v>
+        <v>15.963</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>32.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.01</v>
+        <v>17.012</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.58</v>
+        <v>2.577</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.07</v>
+        <v>32.073</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>14.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.51</v>
+        <v>12.513</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>14.72</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.19</v>
+        <v>20.185</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.11</v>
+        <v>59.108</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.972</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.96</v>
+        <v>19.958</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44999.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.32</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>44.86</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>158.64</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>40.97</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_318.xlsx
+++ b/DATA_goal/Junction_Flooding_318.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,32 +444,32 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,13 +967,13 @@
         <v>44999.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.016</v>
+        <v>22.02</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.346</v>
+        <v>16.35</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.285</v>
+        <v>1.29</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>48.09</v>
@@ -982,192 +982,88 @@
         <v>39.12</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.263</v>
+        <v>17.26</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.95399999999999</v>
+        <v>64.95</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.759</v>
+        <v>26.76</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.855</v>
+        <v>11.86</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.518</v>
+        <v>17.52</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>19.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.476</v>
+        <v>20.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.555</v>
+        <v>5.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.294</v>
+        <v>17.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.581</v>
+        <v>24.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.616</v>
+        <v>14.62</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.826</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.884</v>
+        <v>0.88</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.918</v>
+        <v>255.92</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.319</v>
+        <v>48.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.963</v>
+        <v>15.96</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>32.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.012</v>
+        <v>17.01</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.577</v>
+        <v>2.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.073</v>
+        <v>32.07</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>14.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.513</v>
+        <v>12.51</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>14.72</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.185</v>
+        <v>20.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.108</v>
+        <v>59.11</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.972</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.958</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44999.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.32</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>44.86</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.64</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.57</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>40.97</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.58</v>
+        <v>19.96</v>
       </c>
     </row>
   </sheetData>
